--- a/app/data/inputs/2021-01-28 План по варкам.xlsx
+++ b/app/data/inputs/2021-01-28 План по варкам.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\master\code\git\2020.10-umalat\umalat\app\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5C505-0DF7-40AF-B23E-379EA0D4F885}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6430" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -2112,7 +2113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -2320,24 +2321,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2345,7 +2346,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2811,19 +2812,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK283"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>129</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>160</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>179</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>302</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>420</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>422</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>44193</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>44194</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>44195</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>44196</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>44197</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>44198</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>44199</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>44200</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>44201</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>44202</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>44203</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>44204</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>44205</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>44206</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>44207</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>44208</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>44209</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>44210</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>44211</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>44212</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>44213</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>44214</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>44215</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>44216</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>44217</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>44218</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>44219</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>44220</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>44221</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>44222</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>44223</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>44224</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>44225</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>44226</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>44227</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>44228</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44229</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>44230</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>44231</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>44232</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>44233</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>44234</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>44235</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>44236</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>44237</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>44238</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>44239</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>44240</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>44241</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>44242</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>44243</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>44244</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>44245</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>44246</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>44247</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>44248</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>44249</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>44250</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>44251</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>44252</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>44253</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>44254</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>44255</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>44256</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>44257</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>44258</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>44259</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>44260</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>44261</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>44262</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>44263</v>
       </c>
@@ -8252,10 +8253,10 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>427</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>428</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>429</v>
       </c>
@@ -9032,19 +9033,19 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="DW84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="DW85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>430</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>431</v>
       </c>
@@ -9075,10 +9076,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>432</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>428</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>429</v>
       </c>
@@ -9474,19 +9475,19 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="DW92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="DW93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>430</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>431</v>
       </c>
@@ -9508,10 +9509,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>437</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>428</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>429</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>0</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>0</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>430</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>431</v>
       </c>
@@ -9948,10 +9949,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>438</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>428</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>429</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>0</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>0</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>430</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>431</v>
       </c>
@@ -12569,10 +12570,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>439</v>
       </c>
@@ -12949,10 +12950,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>440</v>
       </c>
@@ -13338,10 +13339,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>441</v>
       </c>
@@ -13352,7 +13353,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>442</v>
       </c>
@@ -13720,7 +13721,7 @@
         <v>39937.100000000013</v>
       </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>443</v>
       </c>
@@ -14088,7 +14089,7 @@
         <v>47871.660000000011</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="DR120" s="1" t="s">
         <v>424</v>
@@ -14097,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>424</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>424</v>
       </c>
@@ -14836,7 +14837,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>424</v>
       </c>
@@ -15210,7 +15211,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="DW124" s="1">
         <v>0</v>
@@ -15219,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>444</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>445</v>
       </c>
@@ -15973,13 +15974,13 @@
         <v>445</v>
       </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="DW127" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>446</v>
       </c>
@@ -16362,10 +16363,10 @@
         <v>446</v>
       </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>447</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>454</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>455</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>424</v>
       </c>
@@ -16478,7 +16479,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>456</v>
       </c>
@@ -16504,10 +16505,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>457</v>
       </c>
@@ -16533,10 +16534,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>458</v>
       </c>
@@ -16559,10 +16560,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="I140" s="1">
         <v>172</v>
@@ -16613,7 +16614,7 @@
         <v>24492.82</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>459</v>
       </c>
@@ -16996,7 +16997,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>460</v>
       </c>
@@ -17007,7 +17008,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
         <v>461</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>462</v>
       </c>
@@ -17557,19 +17558,19 @@
         <v>462</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="DW145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="DW146" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>463</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>464</v>
       </c>
@@ -18305,7 +18306,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
         <v>465</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>466</v>
       </c>
@@ -19041,7 +19042,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
         <v>467</v>
       </c>
@@ -19409,7 +19410,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>468</v>
       </c>
@@ -19777,7 +19778,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>469</v>
       </c>
@@ -20145,7 +20146,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>470</v>
       </c>
@@ -20513,10 +20514,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>471</v>
       </c>
@@ -20899,7 +20900,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>460</v>
       </c>
@@ -21267,7 +21268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>461</v>
       </c>
@@ -21635,7 +21636,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
         <v>462</v>
       </c>
@@ -22003,7 +22004,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="1">
         <v>0</v>
@@ -22357,7 +22358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="1">
         <v>0</v>
@@ -22711,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>472</v>
       </c>
@@ -23079,7 +23080,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="163" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
         <v>473</v>
       </c>
@@ -23447,7 +23448,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>474</v>
       </c>
@@ -23815,7 +23816,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
         <v>475</v>
       </c>
@@ -24183,7 +24184,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>476</v>
       </c>
@@ -24551,7 +24552,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
         <v>477</v>
       </c>
@@ -24919,7 +24920,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="168" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>478</v>
       </c>
@@ -25287,7 +25288,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
         <v>479</v>
       </c>
@@ -25655,10 +25656,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
     </row>
-    <row r="171" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
         <v>480</v>
       </c>
@@ -26044,7 +26045,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="172" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>43938</v>
       </c>
@@ -26055,7 +26056,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="173" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>43939</v>
       </c>
@@ -26066,7 +26067,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="174" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>43940</v>
       </c>
@@ -26077,7 +26078,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="175" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="DW175" s="1">
         <v>0</v>
@@ -26086,7 +26087,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="DW176" s="1">
         <v>0</v>
@@ -26095,7 +26096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="177" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
         <v>472</v>
       </c>
@@ -26106,7 +26107,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="178" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>473</v>
       </c>
@@ -26117,7 +26118,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>474</v>
       </c>
@@ -26128,7 +26129,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>475</v>
       </c>
@@ -26139,7 +26140,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>476</v>
       </c>
@@ -26150,7 +26151,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>477</v>
       </c>
@@ -26161,7 +26162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="183" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
         <v>478</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>479</v>
       </c>
@@ -26183,10 +26184,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="185" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
     </row>
-    <row r="186" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>482</v>
       </c>
@@ -26572,7 +26573,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>460</v>
       </c>
@@ -26946,7 +26947,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>461</v>
       </c>
@@ -27320,7 +27321,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>462</v>
       </c>
@@ -27694,7 +27695,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="1">
         <v>0</v>
@@ -28063,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="1">
         <v>0</v>
@@ -28432,7 +28433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>483</v>
       </c>
@@ -28806,7 +28807,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
         <v>484</v>
       </c>
@@ -29180,7 +29181,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>485</v>
       </c>
@@ -29554,7 +29555,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="195" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
         <v>486</v>
       </c>
@@ -29928,7 +29929,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="196" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>487</v>
       </c>
@@ -30302,7 +30303,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="197" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>488</v>
       </c>
@@ -30676,7 +30677,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>489</v>
       </c>
@@ -31050,7 +31051,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="199" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
         <v>490</v>
       </c>
@@ -31424,10 +31425,10 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
     </row>
-    <row r="201" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
         <v>491</v>
       </c>
@@ -31753,7 +31754,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="202" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
         <v>492</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="s">
         <v>493</v>
       </c>
@@ -32147,7 +32148,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="204" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
         <v>494</v>
       </c>
@@ -32530,7 +32531,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="205" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
         <v>495</v>
       </c>
@@ -32913,7 +32914,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="206" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
         <v>496</v>
       </c>
@@ -33296,7 +33297,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
         <v>497</v>
       </c>
@@ -33304,7 +33305,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="208" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
         <v>498</v>
       </c>
@@ -33669,7 +33670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="209" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
         <v>499</v>
       </c>
@@ -34049,7 +34050,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="210" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
         <v>500</v>
       </c>
@@ -34429,7 +34430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="211" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
         <v>501</v>
       </c>
@@ -34437,7 +34438,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="212" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
         <v>502</v>
       </c>
@@ -34817,7 +34818,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="213" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A213" s="13" t="s">
         <v>503</v>
       </c>
@@ -35197,10 +35198,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
     </row>
-    <row r="215" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
         <v>507</v>
       </c>
@@ -35583,7 +35584,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="216" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
         <v>428</v>
       </c>
@@ -35903,7 +35904,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
         <v>429</v>
       </c>
@@ -36097,7 +36098,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A218" s="13">
         <v>0</v>
       </c>
@@ -36111,7 +36112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A219" s="13">
         <v>0</v>
       </c>
@@ -36125,7 +36126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
         <v>430</v>
       </c>
@@ -36142,7 +36143,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="s">
         <v>431</v>
       </c>
@@ -36153,10 +36154,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
     </row>
-    <row r="223" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="s">
         <v>508</v>
       </c>
@@ -36530,7 +36531,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="224" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
         <v>509</v>
       </c>
@@ -36913,7 +36914,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="225" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="s">
         <v>510</v>
       </c>
@@ -37296,7 +37297,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="226" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
         <v>511</v>
       </c>
@@ -37670,7 +37671,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="227" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A227" s="13" t="s">
         <v>512</v>
       </c>
@@ -38044,7 +38045,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="228" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
         <v>513</v>
       </c>
@@ -38418,7 +38419,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="229" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A229" s="13" t="s">
         <v>514</v>
       </c>
@@ -38792,15 +38793,15 @@
         <v>514</v>
       </c>
     </row>
-    <row r="230" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
     </row>
-    <row r="231" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A231" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="232" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
         <v>516</v>
       </c>
@@ -39168,7 +39169,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="233" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="s">
         <v>517</v>
       </c>
@@ -39536,7 +39537,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="234" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
         <v>519</v>
       </c>
@@ -39904,7 +39905,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="235" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A235" s="13" t="s">
         <v>521</v>
       </c>
@@ -40272,7 +40273,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="236" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
         <v>523</v>
       </c>
@@ -40640,7 +40641,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="237" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A237" s="13" t="s">
         <v>524</v>
       </c>
@@ -41008,16 +41009,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
     </row>
-    <row r="239" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
     </row>
-    <row r="240" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
     </row>
-    <row r="241" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
         <v>525</v>
       </c>
@@ -41256,12 +41257,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="242" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="243" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
       <c r="B243" s="1" t="s">
         <v>148</v>
@@ -41519,7 +41520,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="E244" s="1">
         <v>1594</v>
@@ -41774,7 +41775,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A245" s="13" t="s">
         <v>148</v>
       </c>
@@ -42019,10 +42020,10 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="246" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
     </row>
-    <row r="247" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
       <c r="F247" s="1" t="s">
         <v>308</v>
@@ -42193,103 +42194,103 @@
         <v>311</v>
       </c>
     </row>
-    <row r="248" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
     </row>
-    <row r="249" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
     </row>
-    <row r="250" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
     </row>
-    <row r="251" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
     </row>
-    <row r="252" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
     </row>
-    <row r="253" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
     </row>
-    <row r="254" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
     </row>
-    <row r="255" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
     </row>
-    <row r="256" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A256" s="13"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="13"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="13"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
     </row>
-    <row r="273" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
     </row>
-    <row r="274" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
     </row>
-    <row r="275" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
     </row>
-    <row r="276" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
     </row>
-    <row r="277" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
     </row>
-    <row r="278" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
     </row>
-    <row r="279" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
     </row>
-    <row r="280" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="1" t="s">
         <v>181</v>
@@ -42436,7 +42437,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="281" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A281" s="13" t="s">
         <v>611</v>
       </c>
@@ -42585,7 +42586,7 @@
         <v>-6089.8190000000031</v>
       </c>
     </row>
-    <row r="282" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
         <v>612</v>
       </c>
@@ -42677,7 +42678,7 @@
         <v>2903.9270000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
       <c r="B283" s="1" t="s">
         <v>181</v>
@@ -42730,55 +42731,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.77734375" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>676</v>
       </c>
@@ -42790,7 +42791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -42798,18 +42799,18 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>613</v>
       </c>
@@ -42851,11 +42852,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -42897,11 +42898,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>628</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -42943,9 +42944,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="18" t="s">
         <v>163</v>
       </c>
@@ -42968,9 +42969,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
+    <row r="5" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="18" t="s">
         <v>166</v>
       </c>
@@ -42993,8 +42994,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="34" t="s">
         <v>157</v>
       </c>
@@ -43020,9 +43021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="19" t="s">
         <v>163</v>
       </c>
@@ -43045,13 +43046,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+    <row r="8" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>631</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -43093,9 +43094,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36" t="s">
         <v>633</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -43120,9 +43121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="21" t="s">
         <v>161</v>
       </c>
@@ -43145,9 +43146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="21" t="s">
         <v>161</v>
       </c>
@@ -43170,9 +43171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="21" t="s">
         <v>161</v>
       </c>
@@ -43195,9 +43196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="21" t="s">
         <v>163</v>
       </c>
@@ -43220,9 +43221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="21" t="s">
         <v>161</v>
       </c>
@@ -43245,9 +43246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+    <row r="17" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="21" t="s">
         <v>161</v>
       </c>
@@ -43270,9 +43271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -43297,9 +43298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+    <row r="19" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="16" t="s">
         <v>164</v>
       </c>
@@ -43322,9 +43323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="16" t="s">
         <v>168</v>
       </c>
@@ -43347,9 +43348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="16" t="s">
         <v>166</v>
       </c>
@@ -43372,9 +43373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+    <row r="22" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="16" t="s">
         <v>163</v>
       </c>
@@ -43397,9 +43398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="16" t="s">
         <v>164</v>
       </c>
@@ -43422,8 +43423,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="37" t="s">
         <v>634</v>
       </c>
@@ -43449,9 +43450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+    <row r="25" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="22" t="s">
         <v>164</v>
       </c>
@@ -43474,9 +43475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+    <row r="26" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="22" t="s">
         <v>164</v>
       </c>
@@ -43499,13 +43500,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+    <row r="27" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="36" t="s">
         <v>633</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -43547,9 +43548,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="35" t="s">
+    <row r="30" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -43574,9 +43575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+    <row r="31" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="16" t="s">
         <v>163</v>
       </c>
@@ -43599,9 +43600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+    <row r="32" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="16" t="s">
         <v>165</v>
       </c>
@@ -43624,9 +43625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+    <row r="33" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="16" t="s">
         <v>164</v>
       </c>
@@ -43649,9 +43650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+    <row r="34" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="16" t="s">
         <v>164</v>
       </c>
@@ -43674,9 +43675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+    <row r="35" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="16" t="s">
         <v>165</v>
       </c>
@@ -43699,9 +43700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="16" t="s">
         <v>165</v>
       </c>
@@ -43724,9 +43725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+    <row r="37" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="16" t="s">
         <v>170</v>
       </c>
@@ -43749,9 +43750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+    <row r="38" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="16" t="s">
         <v>171</v>
       </c>
@@ -43774,13 +43775,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+    <row r="39" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="31" t="s">
         <v>628</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -43822,9 +43823,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+    <row r="42" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="18" t="s">
         <v>165</v>
       </c>
@@ -43847,9 +43848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+    <row r="43" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="18" t="s">
         <v>173</v>
       </c>
@@ -43872,9 +43873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+    <row r="44" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="18" t="s">
         <v>163</v>
       </c>
@@ -43897,9 +43898,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+    <row r="45" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="18" t="s">
         <v>167</v>
       </c>
@@ -43922,9 +43923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+    <row r="46" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="18" t="s">
         <v>169</v>
       </c>
@@ -43947,9 +43948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+    <row r="47" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="18" t="s">
         <v>174</v>
       </c>
@@ -43972,9 +43973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
+    <row r="48" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="18" t="s">
         <v>175</v>
       </c>
@@ -43997,8 +43998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
+    <row r="49" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
       <c r="B49" s="34" t="s">
         <v>157</v>
       </c>
@@ -44024,9 +44025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+    <row r="50" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="19" t="s">
         <v>169</v>
       </c>
@@ -44049,9 +44050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+    <row r="51" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="19" t="s">
         <v>167</v>
       </c>
@@ -44074,9 +44075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+    <row r="52" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="19" t="s">
         <v>175</v>
       </c>
@@ -44099,9 +44100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+    <row r="53" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="19" t="s">
         <v>174</v>
       </c>
@@ -44124,9 +44125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+    <row r="54" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="19" t="s">
         <v>173</v>
       </c>
@@ -44149,9 +44150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+    <row r="55" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="19" t="s">
         <v>163</v>
       </c>
@@ -44174,13 +44175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32" t="s">
+    <row r="56" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>628</v>
       </c>
       <c r="C58" s="18" t="s">
@@ -44222,13 +44223,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="32" t="s">
+    <row r="59" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>628</v>
       </c>
       <c r="C61" s="18" t="s">
@@ -44270,9 +44271,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
+    <row r="62" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="18" t="s">
         <v>164</v>
       </c>
@@ -44295,8 +44296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
+    <row r="63" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33"/>
       <c r="B63" s="34" t="s">
         <v>157</v>
       </c>
@@ -44322,13 +44323,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="32" t="s">
+    <row r="64" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C66" s="21" t="s">
@@ -44369,9 +44370,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+    <row r="67" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="21" t="s">
         <v>164</v>
       </c>
@@ -44394,9 +44395,9 @@
         <v>-46.7</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+    <row r="68" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="21" t="s">
         <v>645</v>
       </c>
@@ -44419,9 +44420,9 @@
         <v>-59.5</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+    <row r="69" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="21" t="s">
         <v>164</v>
       </c>
@@ -44444,9 +44445,9 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+    <row r="70" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="21" t="s">
         <v>645</v>
       </c>
@@ -44469,53 +44470,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A10:A26"/>
-    <mergeCell ref="B29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="A41:A55"/>
     <mergeCell ref="B66:B70"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="B58"/>
@@ -44523,6 +44508,22 @@
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63"/>
     <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A10:A26"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -44534,7 +44535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -44544,32 +44545,32 @@
       <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>646</v>
       </c>
@@ -44637,7 +44638,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <f t="shared" ref="A2:A27" ca="1" si="0">IF(N2="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(Q2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q2)))))</f>
         <v>1</v>
@@ -44715,7 +44716,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -44792,7 +44793,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -44869,7 +44870,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -44946,7 +44947,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <f t="shared" ref="A6:A12" ca="1" si="11">IF(N6="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(Q6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q6)))))</f>
         <v>1</v>
@@ -45023,7 +45024,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45100,7 +45101,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45177,7 +45178,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45254,7 +45255,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45331,7 +45332,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45408,7 +45409,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
@@ -45485,7 +45486,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -45559,7 +45560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -45636,7 +45637,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -45713,7 +45714,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -45787,7 +45788,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -45864,7 +45865,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -45938,7 +45939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -46015,7 +46016,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -46092,7 +46093,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -46169,7 +46170,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -46246,7 +46247,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -46320,7 +46321,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -46397,7 +46398,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -46474,7 +46475,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -46551,7 +46552,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -46625,7 +46626,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J28" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -46671,7 +46672,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J29" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -46717,7 +46718,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -46763,7 +46764,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J31" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -46809,7 +46810,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J32" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -46855,7 +46856,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="10" t="str">
         <f t="shared" ref="J33:J64" ca="1" si="21">IF(L33="", IF(N33="","",W33+(INDIRECT("R" &amp; ROW() - 1) - R33)),IF(N33="", "", INDIRECT("R" &amp; ROW() - 1) - R33))</f>
         <v/>
@@ -46901,7 +46902,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -46947,7 +46948,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J35" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -46993,7 +46994,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J36" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47039,7 +47040,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J37" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47085,7 +47086,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47131,7 +47132,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J39" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47177,7 +47178,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47223,7 +47224,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J41" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47269,7 +47270,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J42" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47315,7 +47316,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J43" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47361,7 +47362,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J44" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47407,7 +47408,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J45" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47453,7 +47454,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J46" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47499,7 +47500,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J47" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47545,7 +47546,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J48" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47591,7 +47592,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J49" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47637,7 +47638,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J50" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47683,7 +47684,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J51" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47729,7 +47730,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J52" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47775,7 +47776,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J53" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47821,7 +47822,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J54" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47867,7 +47868,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J55" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47913,7 +47914,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J56" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -47959,7 +47960,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J57" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48005,7 +48006,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J58" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48052,7 +48053,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J59" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48098,7 +48099,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J60" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48144,7 +48145,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J61" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48190,7 +48191,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J62" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48236,7 +48237,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J63" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48282,7 +48283,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J64" s="10" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
@@ -48328,7 +48329,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J65" s="10" t="str">
         <f t="shared" ref="J65:J96" ca="1" si="31">IF(L65="", IF(N65="","",W65+(INDIRECT("R" &amp; ROW() - 1) - R65)),IF(N65="", "", INDIRECT("R" &amp; ROW() - 1) - R65))</f>
         <v/>
@@ -48374,7 +48375,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J66" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48420,7 +48421,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J67" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48466,7 +48467,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J68" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48512,7 +48513,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J69" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48558,7 +48559,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J70" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48604,7 +48605,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J71" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48650,7 +48651,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J72" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48696,7 +48697,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J73" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48742,7 +48743,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J74" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48788,7 +48789,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J75" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48834,7 +48835,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J76" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48880,7 +48881,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J77" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48926,7 +48927,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J78" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48972,7 +48973,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J79" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49018,7 +49019,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J80" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49064,7 +49065,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J81" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49110,7 +49111,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J82" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49156,7 +49157,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J83" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49202,7 +49203,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J84" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49248,7 +49249,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J85" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49294,7 +49295,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J86" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49340,7 +49341,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J87" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49386,7 +49387,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J88" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49432,7 +49433,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J89" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49478,7 +49479,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J90" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49524,7 +49525,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J91" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49570,7 +49571,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J92" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49616,7 +49617,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J93" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49662,7 +49663,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J94" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49708,7 +49709,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J95" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49754,7 +49755,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J96" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49800,7 +49801,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J97" s="10" t="str">
         <f t="shared" ref="J97:J121" ca="1" si="42">IF(L97="", IF(N97="","",W97+(INDIRECT("R" &amp; ROW() - 1) - R97)),IF(N97="", "", INDIRECT("R" &amp; ROW() - 1) - R97))</f>
         <v/>
@@ -49846,7 +49847,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J98" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -49892,7 +49893,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J99" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -49938,7 +49939,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J100" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -49984,7 +49985,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J101" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50030,7 +50031,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J102" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50076,7 +50077,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J103" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50122,7 +50123,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J104" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50168,7 +50169,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J105" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50214,7 +50215,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J106" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50260,7 +50261,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J107" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50306,7 +50307,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J108" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50352,7 +50353,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J109" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50398,7 +50399,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J110" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50444,7 +50445,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J111" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50490,7 +50491,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J112" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50536,7 +50537,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J113" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50582,7 +50583,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J114" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50628,7 +50629,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J115" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50674,7 +50675,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J116" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50720,7 +50721,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J117" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50766,7 +50767,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J118" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50812,7 +50813,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J119" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50858,7 +50859,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J120" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50904,7 +50905,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J121" s="10" t="str">
         <f t="shared" ca="1" si="42"/>
         <v/>
@@ -50950,9 +50951,9 @@
         <v/>
       </c>
     </row>
-    <row r="138" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B121">
     <cfRule type="expression" dxfId="8" priority="2">
@@ -50982,7 +50983,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -50991,7 +50992,7 @@
           </x14:formula2>
           <xm:sqref>B2:B12 B13:B121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -51000,7 +51001,7 @@
           </x14:formula2>
           <xm:sqref>E2:F12 E13:F121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -51016,40 +51017,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>646</v>
       </c>
@@ -51117,7 +51118,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <f ca="1">IF(N2="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q2)))))</f>
         <v>6</v>
@@ -51195,7 +51196,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <f ca="1">IF(N3="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q3)))))</f>
         <v>6</v>
@@ -51272,7 +51273,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <f ca="1">IF(N4="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q4)))))</f>
         <v>6</v>
@@ -51349,7 +51350,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <f ca="1">IF(N5="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q5)))))</f>
         <v>6</v>
@@ -51426,7 +51427,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <f ca="1">IF(N6="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q6)))))</f>
         <v>6</v>
@@ -51503,7 +51504,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="str">
         <f ca="1">IF(N7="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q7)))))</f>
         <v>-</v>
@@ -51577,7 +51578,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <f ca="1">IF(N8="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q8)))))</f>
         <v>7</v>
@@ -51654,7 +51655,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="str">
         <f ca="1">IF(N9="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q9)))))</f>
         <v>-</v>
@@ -51728,7 +51729,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <f ca="1">IF(N10="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q10)))))</f>
         <v>8</v>
@@ -51805,7 +51806,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <f ca="1">IF(N11="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q11)))))</f>
         <v>8</v>
@@ -51882,7 +51883,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="str">
         <f ca="1">IF(N12="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q12)))))</f>
         <v>-</v>
@@ -51956,7 +51957,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <f ca="1">IF(N13="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q13)))))</f>
         <v>9</v>
@@ -52033,7 +52034,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="str">
         <f ca="1">IF(N14="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q14)))))</f>
         <v>-</v>
@@ -52107,7 +52108,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <f ca="1">IF(N15="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q15)))))</f>
         <v>10</v>
@@ -52184,7 +52185,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="str">
         <f ca="1">IF(N16="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q16)))))</f>
         <v>-</v>
@@ -52258,7 +52259,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <f ca="1">IF(N17="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q17)))))</f>
         <v>11</v>
@@ -52335,7 +52336,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="str">
         <f ca="1">IF(N18="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q18)))))</f>
         <v>-</v>
@@ -52409,13 +52410,13 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <f ca="1">IF(N19="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q19)))))</f>
         <v>12</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C19" s="27">
         <v>850</v>
@@ -52433,7 +52434,7 @@
         <v>678</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I19" s="27">
         <v>850</v>
@@ -52467,7 +52468,7 @@
       </c>
       <c r="S19" s="1" t="str">
         <f>IF(H19="","",VLOOKUP(H19,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>2.7, Сакко</v>
+        <v>2.7, Альче, без лактозы</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="6"/>
@@ -52486,7 +52487,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="str">
         <f ca="1">IF(N20="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q20)))))</f>
         <v>-</v>
@@ -52560,7 +52561,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <f ca="1">IF(N21="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q21)))))</f>
         <v>13</v>
@@ -52637,7 +52638,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <f ca="1">IF(N22="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q22)))))</f>
         <v>13</v>
@@ -52714,7 +52715,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="str">
         <f ca="1">IF(N23="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q23)))))</f>
         <v>-</v>
@@ -52788,7 +52789,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <f ca="1">IF(N24="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q24)))))</f>
         <v>14</v>
@@ -52865,7 +52866,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="str">
         <f ca="1">IF(N25="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q25)))))</f>
         <v>-</v>
@@ -52939,7 +52940,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <f ca="1">IF(N26="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q26)))))</f>
         <v>15</v>
@@ -53016,7 +53017,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <f ca="1">IF(N27="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q27)))))</f>
         <v>15</v>
@@ -53093,7 +53094,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="str">
         <f ca="1">IF(N28="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q28)))))</f>
         <v>-</v>
@@ -53167,7 +53168,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <f ca="1">IF(N29="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q29)))))</f>
         <v>16</v>
@@ -53244,7 +53245,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="str">
         <f ca="1">IF(N30="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q30)))))</f>
         <v>-</v>
@@ -53318,7 +53319,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <f ca="1">IF(N31="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q31)))))</f>
         <v>17</v>
@@ -53395,7 +53396,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="str">
         <f ca="1">IF(N32="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q32)))))</f>
         <v>-</v>
@@ -53469,7 +53470,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <f ca="1">IF(N33="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q33)))))</f>
         <v>18</v>
@@ -53546,7 +53547,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="str">
         <f ca="1">IF(N34="-", "-", 1 + MAX(Вода!$A$2:$A$99) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q34)))))</f>
         <v>-</v>
@@ -53620,7 +53621,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J35" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53666,7 +53667,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J36" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53712,7 +53713,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J37" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53758,7 +53759,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53804,7 +53805,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J39" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53850,7 +53851,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53896,7 +53897,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J41" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53942,7 +53943,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J42" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53988,7 +53989,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J43" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54034,7 +54035,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J44" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54080,7 +54081,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J45" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54126,7 +54127,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J46" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54172,7 +54173,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J47" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54218,7 +54219,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J48" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54264,7 +54265,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J49" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54310,7 +54311,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J50" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54356,7 +54357,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J51" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54402,7 +54403,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J52" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54448,7 +54449,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J53" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54494,7 +54495,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J54" s="10" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54540,7 +54541,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J55" s="10" t="str">
         <f t="shared" ref="J55:J79" ca="1" si="31">IF(L55="", IF(N55="","",W55+(INDIRECT("R" &amp; ROW() - 1) - R55)),IF(N55="", "", INDIRECT("R" &amp; ROW() - 1) - R55))</f>
         <v/>
@@ -54586,7 +54587,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J56" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54632,7 +54633,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J57" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54678,7 +54679,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J58" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54724,7 +54725,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J59" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54770,7 +54771,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J60" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54816,7 +54817,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J61" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54862,7 +54863,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J62" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54908,7 +54909,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J63" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -54954,7 +54955,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J64" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55000,7 +55001,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J65" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55046,7 +55047,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J66" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55092,7 +55093,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J67" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55138,7 +55139,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J68" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55184,7 +55185,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J69" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55230,7 +55231,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J70" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55276,7 +55277,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J71" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55322,7 +55323,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J72" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55368,7 +55369,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J73" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55414,7 +55415,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J74" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55460,7 +55461,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J75" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55506,7 +55507,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J76" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55552,7 +55553,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J77" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55598,7 +55599,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J78" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55644,7 +55645,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J79" s="10" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55716,7 +55717,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -55725,7 +55726,7 @@
           </x14:formula2>
           <xm:sqref>B2:B25 B26:B79</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -55734,7 +55735,7 @@
           </x14:formula2>
           <xm:sqref>E2:F25 E26:F79</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -55750,16 +55751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -55772,94 +55773,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>690</v>
       </c>
@@ -55871,20 +55872,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AMK5"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>223</v>
       </c>
@@ -55892,7 +55893,7 @@
         <v>-46.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>224</v>
       </c>
@@ -55900,7 +55901,7 @@
         <v>-59.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>225</v>
       </c>
@@ -55908,7 +55909,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>226</v>
       </c>
@@ -55927,20 +55928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>670</v>
       </c>
@@ -55948,7 +55949,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>242</v>
       </c>
@@ -55956,7 +55957,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>232</v>
       </c>
@@ -55964,7 +55965,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>231</v>
       </c>
@@ -55972,7 +55973,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>233</v>
       </c>
@@ -55980,7 +55981,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>234</v>
       </c>
@@ -55988,7 +55989,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>235</v>
       </c>
@@ -55996,7 +55997,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>229</v>
       </c>
@@ -56004,7 +56005,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>247</v>
       </c>
@@ -56012,7 +56013,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>245</v>
       </c>
@@ -56020,7 +56021,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>243</v>
       </c>
@@ -56028,7 +56029,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>251</v>
       </c>
@@ -56036,7 +56037,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>252</v>
       </c>
@@ -56044,7 +56045,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>237</v>
       </c>
@@ -56052,7 +56053,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>238</v>
       </c>
@@ -56060,7 +56061,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>539</v>
       </c>
@@ -56068,7 +56069,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>240</v>
       </c>
@@ -56076,7 +56077,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>239</v>
       </c>
@@ -56084,7 +56085,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>230</v>
       </c>
@@ -56092,7 +56093,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>236</v>
       </c>
@@ -56100,7 +56101,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>246</v>
       </c>
@@ -56108,7 +56109,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>250</v>
       </c>
@@ -56116,7 +56117,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>248</v>
       </c>
@@ -56124,7 +56125,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>244</v>
       </c>
@@ -56132,7 +56133,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>249</v>
       </c>
@@ -56140,7 +56141,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>241</v>
       </c>
@@ -56155,20 +56156,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>670</v>
       </c>
@@ -56176,7 +56177,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>226</v>
       </c>
@@ -56184,7 +56185,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>225</v>
       </c>
@@ -56192,7 +56193,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>222</v>
       </c>
@@ -56200,7 +56201,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>223</v>
       </c>
@@ -56208,7 +56209,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>224</v>
       </c>
@@ -56216,7 +56217,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>217</v>
       </c>
@@ -56224,7 +56225,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>213</v>
       </c>
@@ -56232,7 +56233,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>220</v>
       </c>
@@ -56240,7 +56241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>215</v>
       </c>
@@ -56248,7 +56249,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>219</v>
       </c>
@@ -56256,7 +56257,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>228</v>
       </c>
@@ -56264,7 +56265,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>212</v>
       </c>
@@ -56272,7 +56273,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>214</v>
       </c>
@@ -56280,7 +56281,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>541</v>
       </c>
@@ -56288,7 +56289,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>216</v>
       </c>
@@ -56296,7 +56297,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>205</v>
       </c>
@@ -56304,7 +56305,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>210</v>
       </c>
@@ -56312,7 +56313,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>218</v>
       </c>
@@ -56320,7 +56321,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>204</v>
       </c>
@@ -56328,7 +56329,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>211</v>
       </c>
@@ -56336,7 +56337,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>206</v>
       </c>
@@ -56344,7 +56345,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>207</v>
       </c>
@@ -56352,7 +56353,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>208</v>
       </c>
@@ -56360,7 +56361,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>209</v>
       </c>
@@ -56368,7 +56369,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>221</v>
       </c>
@@ -56376,7 +56377,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>203</v>
       </c>
@@ -56384,7 +56385,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>196</v>
       </c>
@@ -56392,7 +56393,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>195</v>
       </c>
@@ -56400,7 +56401,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>200</v>
       </c>
@@ -56408,7 +56409,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>198</v>
       </c>
@@ -56416,7 +56417,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>197</v>
       </c>
@@ -56424,7 +56425,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>202</v>
       </c>
@@ -56432,7 +56433,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>557</v>
       </c>
@@ -56440,7 +56441,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>201</v>
       </c>
@@ -56448,7 +56449,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>199</v>
       </c>
